--- a/Bale_vehicles/Requirement_vehicle.xlsx
+++ b/Bale_vehicles/Requirement_vehicle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESE\2 Mechatronic Systems Engineering\git\MSE-ProjectHarvest\Bale_vehicles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E4D6D7-BCE3-4621-9250-27D49B9C6239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698140C8-6D0F-48B0-8A67-2796BE9EB1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,14 +537,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="47" customWidth="1"/>
-    <col min="3" max="5" width="9.7109375" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" customWidth="1"/>
     <col min="9" max="11" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
